--- a/data/notes_pnl2.xlsx
+++ b/data/notes_pnl2.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>16. Revenue from Operations</t>
   </si>
@@ -239,28 +239,6 @@
   </si>
   <si>
     <t>- For Tax Audit / Certification Fees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25. Earnings in foreign currency:  </t>
-  </si>
-  <si>
-    <t>Inflow :</t>
-  </si>
-  <si>
-    <t>Income from export of services</t>
-  </si>
-  <si>
-    <t>26. Particulars of un-hedged foreign currency exposure:</t>
-  </si>
-  <si>
-    <t>(i) There is no derivate contract outstanding as at the Balance Sheet date.
-(ii) Particulars of un-hedged foreign currency exposure as at the Balance Sheet date</t>
-  </si>
-  <si>
-    <t>27. Relationship with Struck off Companies</t>
-  </si>
-  <si>
-    <t>The Company did not have any transactions with Companies struck off under Section 248 of Companies Act, 2013 or Section 560 of Companies Act, 1956 considering the information available with the Company.</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1071,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1101,13 +1079,13 @@
     <xf numFmtId="182" fontId="9" fillId="2" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="181" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1270,7 +1248,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="13" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1286,7 +1264,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="181" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2251,8 +2229,8 @@
   <sheetPr/>
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
@@ -3307,40 +3285,24 @@
       <c r="C99" s="50"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="69" t="s">
-        <v>68</v>
-      </c>
+      <c r="A100" s="69"/>
       <c r="B100" s="70"/>
       <c r="C100" s="71"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="72"/>
-      <c r="B101" s="12">
-        <v>45382</v>
-      </c>
-      <c r="C101" s="12">
-        <v>45016</v>
-      </c>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="73" t="s">
-        <v>69</v>
-      </c>
+      <c r="A102" s="73"/>
       <c r="B102" s="74"/>
       <c r="C102" s="75"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="B103" s="77">
-        <f>B9/83.9</f>
-        <v>17.3717257687723</v>
-      </c>
-      <c r="C103" s="78">
-        <f>157650.995/1000</f>
-        <v>157.650995</v>
-      </c>
+      <c r="A103" s="76"/>
+      <c r="B103" s="77"/>
+      <c r="C103" s="78"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="79"/>
@@ -3348,47 +3310,29 @@
       <c r="C104" s="81"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="69" t="s">
-        <v>71</v>
-      </c>
+      <c r="A105" s="69"/>
       <c r="B105" s="70"/>
       <c r="C105" s="69"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="82" t="s">
-        <v>72</v>
-      </c>
+      <c r="A106" s="82"/>
       <c r="B106" s="82"/>
       <c r="C106" s="83"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="72"/>
-      <c r="B107" s="12">
-        <v>45382</v>
-      </c>
-      <c r="C107" s="12">
-        <v>45016</v>
-      </c>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="73" t="s">
-        <v>69</v>
-      </c>
+      <c r="A108" s="73"/>
       <c r="B108" s="84"/>
       <c r="C108" s="85"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="B109" s="77">
-        <f>1737172.57687723/1000</f>
-        <v>1737.17257687723</v>
-      </c>
-      <c r="C109" s="78">
-        <f>157650.995/1000</f>
-        <v>157.650995</v>
-      </c>
+      <c r="A109" s="76"/>
+      <c r="B109" s="77"/>
+      <c r="C109" s="78"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="79"/>
@@ -3396,16 +3340,12 @@
       <c r="C110" s="87"/>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="88" t="s">
-        <v>73</v>
-      </c>
+      <c r="A111" s="88"/>
       <c r="B111" s="89"/>
       <c r="C111" s="90"/>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="91" t="s">
-        <v>74</v>
-      </c>
+      <c r="A112" s="91"/>
       <c r="B112" s="91"/>
       <c r="C112" s="91"/>
     </row>
